--- a/data/portfolio/portfolio.xlsx
+++ b/data/portfolio/portfolio.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>I've been actively working on this new design and features. Now users can switch between sections easily while doing the task. Also Online Answer sheet has been improved. New feedback section for further enhancements of the page in the future.</t>
+          <t>I've been actively working on this new design and features. Now users can switch between sections easily while doing the task. Also Online Answer sheet has been improved. New feedback section for further enhancements of the page in the future. | https://IELTSLive.vercel.app</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Add your favorite songs from youtube and listen to them all in a single place. | https://jasurgraduate.github.io/DJ/</t>
+          <t>Add your favorite songs from youtube and listen to them all in a single place. | https://playlistgo.vercel.app</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
